--- a/published-data/fonds-solidarite/fds-2021-02-07/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-07/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3138,13 +3138,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>60647</v>
+        <v>60645</v>
       </c>
       <c r="D55" t="n">
-        <v>17919</v>
+        <v>17918</v>
       </c>
       <c r="E55" t="n">
-        <v>97793882</v>
+        <v>97791087</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -9411,13 +9411,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>14370</v>
+        <v>14369</v>
       </c>
       <c r="D178" t="n">
         <v>4390</v>
       </c>
       <c r="E178" t="n">
-        <v>22425917</v>
+        <v>22424417</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -10176,13 +10176,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>39445</v>
+        <v>39446</v>
       </c>
       <c r="D193" t="n">
         <v>12934</v>
       </c>
       <c r="E193" t="n">
-        <v>63771141</v>
+        <v>63772555</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -10635,13 +10635,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="D202" t="n">
-        <v>14097</v>
+        <v>14098</v>
       </c>
       <c r="E202" t="n">
-        <v>69270050</v>
+        <v>69271353</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -11145,13 +11145,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>37253</v>
+        <v>37252</v>
       </c>
       <c r="D212" t="n">
         <v>11827</v>
       </c>
       <c r="E212" t="n">
-        <v>59192747</v>
+        <v>59191444</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>111857</v>
+        <v>111856</v>
       </c>
       <c r="D451" t="n">
         <v>26484</v>
       </c>
       <c r="E451" t="n">
-        <v>187047768</v>
+        <v>187037768</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
@@ -23793,13 +23793,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>273972</v>
+        <v>273968</v>
       </c>
       <c r="D460" t="n">
         <v>68000</v>
       </c>
       <c r="E460" t="n">
-        <v>439570918</v>
+        <v>439566794</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -25119,13 +25119,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>125107</v>
+        <v>125109</v>
       </c>
       <c r="D486" t="n">
-        <v>26908</v>
+        <v>26909</v>
       </c>
       <c r="E486" t="n">
-        <v>220619170</v>
+        <v>220622220</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -25578,13 +25578,13 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>96731</v>
+        <v>96734</v>
       </c>
       <c r="D495" t="n">
-        <v>22943</v>
+        <v>22944</v>
       </c>
       <c r="E495" t="n">
-        <v>159632149</v>
+        <v>159634859</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
@@ -29454,13 +29454,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>11687</v>
+        <v>11686</v>
       </c>
       <c r="D571" t="n">
         <v>3596</v>
       </c>
       <c r="E571" t="n">
-        <v>19458618</v>
+        <v>19458515</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -32871,13 +32871,13 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>114345</v>
+        <v>114343</v>
       </c>
       <c r="D638" t="n">
-        <v>34971</v>
+        <v>34970</v>
       </c>
       <c r="E638" t="n">
-        <v>173489735</v>
+        <v>173488085</v>
       </c>
       <c r="F638" t="inlineStr">
         <is>
@@ -34860,13 +34860,13 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>45615</v>
+        <v>45618</v>
       </c>
       <c r="D677" t="n">
-        <v>14409</v>
+        <v>14410</v>
       </c>
       <c r="E677" t="n">
-        <v>67262267</v>
+        <v>67266562</v>
       </c>
       <c r="F677" t="inlineStr">
         <is>
@@ -37767,13 +37767,13 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>93865</v>
+        <v>93863</v>
       </c>
       <c r="D734" t="n">
-        <v>27952</v>
+        <v>27951</v>
       </c>
       <c r="E734" t="n">
-        <v>138584381</v>
+        <v>138581739</v>
       </c>
       <c r="F734" t="inlineStr">
         <is>
@@ -38328,13 +38328,13 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>18634</v>
+        <v>18636</v>
       </c>
       <c r="D745" t="n">
         <v>5268</v>
       </c>
       <c r="E745" t="n">
-        <v>30425937</v>
+        <v>30428579</v>
       </c>
       <c r="F745" t="inlineStr">
         <is>
@@ -39450,13 +39450,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>11959</v>
+        <v>11960</v>
       </c>
       <c r="D767" t="n">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="E767" t="n">
-        <v>18095195</v>
+        <v>18095345</v>
       </c>
       <c r="F767" t="inlineStr">
         <is>
@@ -42612,13 +42612,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>20262</v>
+        <v>20263</v>
       </c>
       <c r="D829" t="n">
-        <v>6199</v>
+        <v>6200</v>
       </c>
       <c r="E829" t="n">
-        <v>32164373</v>
+        <v>32164476</v>
       </c>
       <c r="F829" t="inlineStr">
         <is>
